--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntf5-Ntrk2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntf5-Ntrk2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Ntrk2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,25 +531,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.121806</v>
+        <v>0.2515545</v>
       </c>
       <c r="H2">
-        <v>0.365418</v>
+        <v>0.503109</v>
       </c>
       <c r="I2">
-        <v>0.155807708477415</v>
+        <v>0.3771142493566836</v>
       </c>
       <c r="J2">
-        <v>0.1558077084774149</v>
+        <v>0.2875567487178491</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4046295</v>
+        <v>1.266036</v>
       </c>
       <c r="N2">
-        <v>0.8092590000000001</v>
+        <v>2.532072</v>
       </c>
       <c r="O2">
-        <v>0.03591080321622318</v>
+        <v>0.08618506627501002</v>
       </c>
       <c r="P2">
-        <v>0.02861811729998201</v>
+        <v>0.07308027304922925</v>
       </c>
       <c r="Q2">
-        <v>0.049286300877</v>
+        <v>0.318477052962</v>
       </c>
       <c r="R2">
-        <v>0.295717805262</v>
+        <v>1.273908211848</v>
       </c>
       <c r="S2">
-        <v>0.005595179958703117</v>
+        <v>0.03250161657405643</v>
       </c>
       <c r="T2">
-        <v>0.004458923277448062</v>
+        <v>0.02101472571344901</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +593,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.121806</v>
+        <v>0.2515545</v>
       </c>
       <c r="H3">
-        <v>0.365418</v>
+        <v>0.503109</v>
       </c>
       <c r="I3">
-        <v>0.155807708477415</v>
+        <v>0.3771142493566836</v>
       </c>
       <c r="J3">
-        <v>0.1558077084774149</v>
+        <v>0.2875567487178491</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>15.805029</v>
       </c>
       <c r="O3">
-        <v>0.4675645961269925</v>
+        <v>0.3586410580856194</v>
       </c>
       <c r="P3">
-        <v>0.5589189293558889</v>
+        <v>0.4561623187930622</v>
       </c>
       <c r="Q3">
-        <v>0.641715787458</v>
+        <v>1.3252753891935</v>
       </c>
       <c r="R3">
-        <v>5.775442087122</v>
+        <v>7.951652335161001</v>
       </c>
       <c r="S3">
-        <v>0.07285016828771471</v>
+        <v>0.1352486534084451</v>
       </c>
       <c r="T3">
-        <v>0.08708387760759122</v>
+        <v>0.131172553279728</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +655,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.2515545</v>
+      </c>
+      <c r="H4">
+        <v>0.503109</v>
+      </c>
+      <c r="I4">
+        <v>0.3771142493566836</v>
+      </c>
+      <c r="J4">
+        <v>0.2875567487178491</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.121806</v>
-      </c>
-      <c r="H4">
-        <v>0.365418</v>
-      </c>
-      <c r="I4">
-        <v>0.155807708477415</v>
-      </c>
-      <c r="J4">
-        <v>0.1558077084774149</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.007945333333333334</v>
+        <v>8.1553585</v>
       </c>
       <c r="N4">
-        <v>0.023836</v>
+        <v>16.310717</v>
       </c>
       <c r="O4">
-        <v>0.0007051470587800245</v>
+        <v>0.5551738756393707</v>
       </c>
       <c r="P4">
-        <v>0.0008429210474796959</v>
+        <v>0.4707574081577085</v>
       </c>
       <c r="Q4">
-        <v>0.0009677892719999999</v>
+        <v>2.05151712978825</v>
       </c>
       <c r="R4">
-        <v>0.008710103448</v>
+        <v>8.206068519153</v>
       </c>
       <c r="S4">
-        <v>0.0001098673473681047</v>
+        <v>0.2093639793741821</v>
       </c>
       <c r="T4">
-        <v>0.0001313335968351937</v>
+        <v>0.1353694697246721</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -720,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -735,10 +732,10 @@
         <v>0.365418</v>
       </c>
       <c r="I5">
-        <v>0.155807708477415</v>
+        <v>0.182603683325642</v>
       </c>
       <c r="J5">
-        <v>0.1558077084774149</v>
+        <v>0.2088581440661546</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.1203925</v>
+        <v>1.266036</v>
       </c>
       <c r="N5">
-        <v>10.240785</v>
+        <v>2.532072</v>
       </c>
       <c r="O5">
-        <v>0.4544340129855215</v>
+        <v>0.08618506627501002</v>
       </c>
       <c r="P5">
-        <v>0.3621485660016092</v>
+        <v>0.07308027304922925</v>
       </c>
       <c r="Q5">
-        <v>0.623694528855</v>
+        <v>0.154210781016</v>
       </c>
       <c r="R5">
-        <v>3.74216717313</v>
+        <v>0.925264686096</v>
       </c>
       <c r="S5">
-        <v>0.07080432221746993</v>
+        <v>0.0157377105494814</v>
       </c>
       <c r="T5">
-        <v>0.05642553819709259</v>
+        <v>0.01526341019690984</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -782,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -797,10 +794,10 @@
         <v>0.365418</v>
       </c>
       <c r="I6">
-        <v>0.155807708477415</v>
+        <v>0.182603683325642</v>
       </c>
       <c r="J6">
-        <v>0.1558077084774149</v>
+        <v>0.2088581440661546</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +806,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4633423333333333</v>
+        <v>5.268343000000001</v>
       </c>
       <c r="N6">
-        <v>1.390027</v>
+        <v>15.805029</v>
       </c>
       <c r="O6">
-        <v>0.04112155775611768</v>
+        <v>0.3586410580856194</v>
       </c>
       <c r="P6">
-        <v>0.04915602512439415</v>
+        <v>0.4561623187930622</v>
       </c>
       <c r="Q6">
-        <v>0.05643787625399999</v>
+        <v>0.6417157874580002</v>
       </c>
       <c r="R6">
-        <v>0.5079408862859999</v>
+        <v>5.775442087122001</v>
       </c>
       <c r="S6">
-        <v>0.006407055683002366</v>
+        <v>0.0654891781982396</v>
       </c>
       <c r="T6">
-        <v>0.007658887632490089</v>
+        <v>0.09527321529603254</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -844,7 +841,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -859,45 +856,45 @@
         <v>0.365418</v>
       </c>
       <c r="I7">
-        <v>0.155807708477415</v>
+        <v>0.182603683325642</v>
       </c>
       <c r="J7">
-        <v>0.1558077084774149</v>
+        <v>0.2088581440661546</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.002973333333333333</v>
+        <v>8.1553585</v>
       </c>
       <c r="N7">
-        <v>0.008920000000000001</v>
+        <v>16.310717</v>
       </c>
       <c r="O7">
-        <v>0.0002638828563650704</v>
+        <v>0.5551738756393707</v>
       </c>
       <c r="P7">
-        <v>0.0003154411706460349</v>
+        <v>0.4707574081577085</v>
       </c>
       <c r="Q7">
-        <v>0.00036216984</v>
+        <v>0.9933715974510001</v>
       </c>
       <c r="R7">
-        <v>0.00325952856</v>
+        <v>5.960229584706</v>
       </c>
       <c r="S7">
-        <v>4.111498315671646E-05</v>
+        <v>0.101376794577921</v>
       </c>
       <c r="T7">
-        <v>4.914816595779189E-05</v>
+        <v>0.09832151857321222</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -906,25 +903,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.1442246666666667</v>
+        <v>0.244596</v>
       </c>
       <c r="H8">
-        <v>0.432674</v>
+        <v>0.733788</v>
       </c>
       <c r="I8">
-        <v>0.184484465619529</v>
+        <v>0.3666825158589784</v>
       </c>
       <c r="J8">
-        <v>0.184484465619529</v>
+        <v>0.4194035318950228</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,33 +930,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4046295</v>
+        <v>1.266036</v>
       </c>
       <c r="N8">
-        <v>0.8092590000000001</v>
+        <v>2.532072</v>
       </c>
       <c r="O8">
-        <v>0.03591080321622318</v>
+        <v>0.08618506627501002</v>
       </c>
       <c r="P8">
-        <v>0.02861811729998201</v>
+        <v>0.07308027304922925</v>
       </c>
       <c r="Q8">
-        <v>0.05835755476100001</v>
+        <v>0.309667341456</v>
       </c>
       <c r="R8">
-        <v>0.350145328566</v>
+        <v>1.858004048736</v>
       </c>
       <c r="S8">
-        <v>0.006624985341312997</v>
+        <v>0.03160255693119347</v>
       </c>
       <c r="T8">
-        <v>0.005279598077124179</v>
+        <v>0.0306501246286994</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -968,25 +965,25 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.1442246666666667</v>
+        <v>0.244596</v>
       </c>
       <c r="H9">
-        <v>0.432674</v>
+        <v>0.733788</v>
       </c>
       <c r="I9">
-        <v>0.184484465619529</v>
+        <v>0.3666825158589784</v>
       </c>
       <c r="J9">
-        <v>0.184484465619529</v>
+        <v>0.4194035318950228</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,27 +998,27 @@
         <v>15.805029</v>
       </c>
       <c r="O9">
-        <v>0.4675645961269925</v>
+        <v>0.3586410580856194</v>
       </c>
       <c r="P9">
-        <v>0.5589189293558889</v>
+        <v>0.4561623187930622</v>
       </c>
       <c r="Q9">
-        <v>0.7598250130606667</v>
+        <v>1.288615624428</v>
       </c>
       <c r="R9">
-        <v>6.838425117546</v>
+        <v>11.597540619852</v>
       </c>
       <c r="S9">
-        <v>0.08625840465909911</v>
+        <v>0.1315074054691609</v>
       </c>
       <c r="T9">
-        <v>0.1031118600068604</v>
+        <v>0.1913160876192337</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
@@ -1030,60 +1027,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.244596</v>
+      </c>
+      <c r="H10">
+        <v>0.733788</v>
+      </c>
+      <c r="I10">
+        <v>0.3666825158589784</v>
+      </c>
+      <c r="J10">
+        <v>0.4194035318950228</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.1442246666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.432674</v>
-      </c>
-      <c r="I10">
-        <v>0.184484465619529</v>
-      </c>
-      <c r="J10">
-        <v>0.184484465619529</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.007945333333333334</v>
+        <v>8.1553585</v>
       </c>
       <c r="N10">
-        <v>0.023836</v>
+        <v>16.310717</v>
       </c>
       <c r="O10">
-        <v>0.0007051470587800245</v>
+        <v>0.5551738756393707</v>
       </c>
       <c r="P10">
-        <v>0.0008429210474796959</v>
+        <v>0.4707574081577085</v>
       </c>
       <c r="Q10">
-        <v>0.001145913051555556</v>
+        <v>1.994768067666</v>
       </c>
       <c r="R10">
-        <v>0.010313217464</v>
+        <v>11.968608405996</v>
       </c>
       <c r="S10">
-        <v>0.0001300886783222154</v>
+        <v>0.203572553458624</v>
       </c>
       <c r="T10">
-        <v>0.0001555058390037453</v>
+        <v>0.1974373196470898</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1092,25 +1089,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.1442246666666667</v>
+        <v>0.04909466666666667</v>
       </c>
       <c r="H11">
-        <v>0.432674</v>
+        <v>0.147284</v>
       </c>
       <c r="I11">
-        <v>0.184484465619529</v>
+        <v>0.07359955145869621</v>
       </c>
       <c r="J11">
-        <v>0.184484465619529</v>
+        <v>0.08418157532097355</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,33 +1116,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.1203925</v>
+        <v>1.266036</v>
       </c>
       <c r="N11">
-        <v>10.240785</v>
+        <v>2.532072</v>
       </c>
       <c r="O11">
-        <v>0.4544340129855215</v>
+        <v>0.08618506627501002</v>
       </c>
       <c r="P11">
-        <v>0.3621485660016092</v>
+        <v>0.07308027304922925</v>
       </c>
       <c r="Q11">
-        <v>0.7384869015150001</v>
+        <v>0.062155615408</v>
       </c>
       <c r="R11">
-        <v>4.430921409090001</v>
+        <v>0.372933692448</v>
       </c>
       <c r="S11">
-        <v>0.08383601604497204</v>
+        <v>0.006343182220278742</v>
       </c>
       <c r="T11">
-        <v>0.06681078467368559</v>
+        <v>0.006152012510171005</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1154,25 +1151,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1442246666666667</v>
+        <v>0.04909466666666667</v>
       </c>
       <c r="H12">
-        <v>0.432674</v>
+        <v>0.147284</v>
       </c>
       <c r="I12">
-        <v>0.184484465619529</v>
+        <v>0.07359955145869621</v>
       </c>
       <c r="J12">
-        <v>0.184484465619529</v>
+        <v>0.08418157532097355</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4633423333333333</v>
+        <v>5.268343000000001</v>
       </c>
       <c r="N12">
-        <v>1.390027</v>
+        <v>15.805029</v>
       </c>
       <c r="O12">
-        <v>0.04112155775611768</v>
+        <v>0.3586410580856194</v>
       </c>
       <c r="P12">
-        <v>0.04915602512439415</v>
+        <v>0.4561623187930622</v>
       </c>
       <c r="Q12">
-        <v>0.06682539357755556</v>
+        <v>0.2586475434706667</v>
       </c>
       <c r="R12">
-        <v>0.601428542198</v>
+        <v>2.327827891236</v>
       </c>
       <c r="S12">
-        <v>0.007586288608079968</v>
+        <v>0.0263958210097738</v>
       </c>
       <c r="T12">
-        <v>0.009068523027053995</v>
+        <v>0.03840046259806812</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1216,799 +1213,55 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04909466666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.147284</v>
+      </c>
+      <c r="I13">
+        <v>0.07359955145869621</v>
+      </c>
+      <c r="J13">
+        <v>0.08418157532097355</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.1442246666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.432674</v>
-      </c>
-      <c r="I13">
-        <v>0.184484465619529</v>
-      </c>
-      <c r="J13">
-        <v>0.184484465619529</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.002973333333333333</v>
+        <v>8.1553585</v>
       </c>
       <c r="N13">
-        <v>0.008920000000000001</v>
+        <v>16.310717</v>
       </c>
       <c r="O13">
-        <v>0.0002638828563650704</v>
+        <v>0.5551738756393707</v>
       </c>
       <c r="P13">
-        <v>0.0003154411706460349</v>
+        <v>0.4707574081577085</v>
       </c>
       <c r="Q13">
-        <v>0.0004288280088888889</v>
+        <v>0.4003846071046667</v>
       </c>
       <c r="R13">
-        <v>0.00385945208</v>
+        <v>2.402307642628</v>
       </c>
       <c r="S13">
-        <v>4.868228774266495E-05</v>
+        <v>0.04086054822864367</v>
       </c>
       <c r="T13">
-        <v>5.819399580103239E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.1277066666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.38312</v>
-      </c>
-      <c r="I14">
-        <v>0.1633555251023957</v>
-      </c>
-      <c r="J14">
-        <v>0.1633555251023956</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.4046295</v>
-      </c>
-      <c r="N14">
-        <v>0.8092590000000001</v>
-      </c>
-      <c r="O14">
-        <v>0.03591080321622318</v>
-      </c>
-      <c r="P14">
-        <v>0.02861811729998201</v>
-      </c>
-      <c r="Q14">
-        <v>0.05167388468</v>
-      </c>
-      <c r="R14">
-        <v>0.31004330808</v>
-      </c>
-      <c r="S14">
-        <v>0.005866228116234938</v>
-      </c>
-      <c r="T14">
-        <v>0.004674927578980514</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.1277066666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.38312</v>
-      </c>
-      <c r="I15">
-        <v>0.1633555251023957</v>
-      </c>
-      <c r="J15">
-        <v>0.1633555251023956</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>5.268343000000001</v>
-      </c>
-      <c r="N15">
-        <v>15.805029</v>
-      </c>
-      <c r="O15">
-        <v>0.4675645961269925</v>
-      </c>
-      <c r="P15">
-        <v>0.5589189293558889</v>
-      </c>
-      <c r="Q15">
-        <v>0.6728025233866667</v>
-      </c>
-      <c r="R15">
-        <v>6.05522271048</v>
-      </c>
-      <c r="S15">
-        <v>0.07637926011961442</v>
-      </c>
-      <c r="T15">
-        <v>0.09130249519460001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.1277066666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.38312</v>
-      </c>
-      <c r="I16">
-        <v>0.1633555251023957</v>
-      </c>
-      <c r="J16">
-        <v>0.1633555251023956</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.007945333333333334</v>
-      </c>
-      <c r="N16">
-        <v>0.023836</v>
-      </c>
-      <c r="O16">
-        <v>0.0007051470587800245</v>
-      </c>
-      <c r="P16">
-        <v>0.0008429210474796959</v>
-      </c>
-      <c r="Q16">
-        <v>0.001014672035555556</v>
-      </c>
-      <c r="R16">
-        <v>0.009132048320000001</v>
-      </c>
-      <c r="S16">
-        <v>0.0001151896680614208</v>
-      </c>
-      <c r="T16">
-        <v>0.0001376958103309071</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.1277066666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.38312</v>
-      </c>
-      <c r="I17">
-        <v>0.1633555251023957</v>
-      </c>
-      <c r="J17">
-        <v>0.1633555251023956</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>5.1203925</v>
-      </c>
-      <c r="N17">
-        <v>10.240785</v>
-      </c>
-      <c r="O17">
-        <v>0.4544340129855215</v>
-      </c>
-      <c r="P17">
-        <v>0.3621485660016092</v>
-      </c>
-      <c r="Q17">
-        <v>0.6539082582</v>
-      </c>
-      <c r="R17">
-        <v>3.9234495492</v>
-      </c>
-      <c r="S17">
-        <v>0.07423430681563876</v>
-      </c>
-      <c r="T17">
-        <v>0.05915896916427246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.1277066666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.38312</v>
-      </c>
-      <c r="I18">
-        <v>0.1633555251023957</v>
-      </c>
-      <c r="J18">
-        <v>0.1633555251023956</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.4633423333333333</v>
-      </c>
-      <c r="N18">
-        <v>1.390027</v>
-      </c>
-      <c r="O18">
-        <v>0.04112155775611768</v>
-      </c>
-      <c r="P18">
-        <v>0.04915602512439415</v>
-      </c>
-      <c r="Q18">
-        <v>0.05917190491555555</v>
-      </c>
-      <c r="R18">
-        <v>0.5325471442399999</v>
-      </c>
-      <c r="S18">
-        <v>0.006717433660279095</v>
-      </c>
-      <c r="T18">
-        <v>0.00802990829614196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.1277066666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.38312</v>
-      </c>
-      <c r="I19">
-        <v>0.1633555251023957</v>
-      </c>
-      <c r="J19">
-        <v>0.1633555251023956</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.002973333333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.008920000000000001</v>
-      </c>
-      <c r="O19">
-        <v>0.0002638828563650704</v>
-      </c>
-      <c r="P19">
-        <v>0.0003154411706460349</v>
-      </c>
-      <c r="Q19">
-        <v>0.0003797144888888889</v>
-      </c>
-      <c r="R19">
-        <v>0.0034174304</v>
-      </c>
-      <c r="S19">
-        <v>4.310672256703614E-05</v>
-      </c>
-      <c r="T19">
-        <v>5.152905806979742E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.388034</v>
-      </c>
-      <c r="H20">
-        <v>1.164102</v>
-      </c>
-      <c r="I20">
-        <v>0.4963523008006604</v>
-      </c>
-      <c r="J20">
-        <v>0.4963523008006603</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.4046295</v>
-      </c>
-      <c r="N20">
-        <v>0.8092590000000001</v>
-      </c>
-      <c r="O20">
-        <v>0.03591080321622318</v>
-      </c>
-      <c r="P20">
-        <v>0.02861811729998201</v>
-      </c>
-      <c r="Q20">
-        <v>0.157010003403</v>
-      </c>
-      <c r="R20">
-        <v>0.9420600204180001</v>
-      </c>
-      <c r="S20">
-        <v>0.01782440979997213</v>
-      </c>
-      <c r="T20">
-        <v>0.01420466836642925</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.388034</v>
-      </c>
-      <c r="H21">
-        <v>1.164102</v>
-      </c>
-      <c r="I21">
-        <v>0.4963523008006604</v>
-      </c>
-      <c r="J21">
-        <v>0.4963523008006603</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>5.268343000000001</v>
-      </c>
-      <c r="N21">
-        <v>15.805029</v>
-      </c>
-      <c r="O21">
-        <v>0.4675645961269925</v>
-      </c>
-      <c r="P21">
-        <v>0.5589189293558889</v>
-      </c>
-      <c r="Q21">
-        <v>2.044296207662</v>
-      </c>
-      <c r="R21">
-        <v>18.398665868958</v>
-      </c>
-      <c r="S21">
-        <v>0.2320767630605643</v>
-      </c>
-      <c r="T21">
-        <v>0.2774206965468372</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.388034</v>
-      </c>
-      <c r="H22">
-        <v>1.164102</v>
-      </c>
-      <c r="I22">
-        <v>0.4963523008006604</v>
-      </c>
-      <c r="J22">
-        <v>0.4963523008006603</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.007945333333333334</v>
-      </c>
-      <c r="N22">
-        <v>0.023836</v>
-      </c>
-      <c r="O22">
-        <v>0.0007051470587800245</v>
-      </c>
-      <c r="P22">
-        <v>0.0008429210474796959</v>
-      </c>
-      <c r="Q22">
-        <v>0.003083059474666667</v>
-      </c>
-      <c r="R22">
-        <v>0.027747535272</v>
-      </c>
-      <c r="S22">
-        <v>0.0003500013650282837</v>
-      </c>
-      <c r="T22">
-        <v>0.0004183858013098497</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.388034</v>
-      </c>
-      <c r="H23">
-        <v>1.164102</v>
-      </c>
-      <c r="I23">
-        <v>0.4963523008006604</v>
-      </c>
-      <c r="J23">
-        <v>0.4963523008006603</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>5.1203925</v>
-      </c>
-      <c r="N23">
-        <v>10.240785</v>
-      </c>
-      <c r="O23">
-        <v>0.4544340129855215</v>
-      </c>
-      <c r="P23">
-        <v>0.3621485660016092</v>
-      </c>
-      <c r="Q23">
-        <v>1.986886383345</v>
-      </c>
-      <c r="R23">
-        <v>11.92131830007</v>
-      </c>
-      <c r="S23">
-        <v>0.2255593679074408</v>
-      </c>
-      <c r="T23">
-        <v>0.1797532739665585</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.388034</v>
-      </c>
-      <c r="H24">
-        <v>1.164102</v>
-      </c>
-      <c r="I24">
-        <v>0.4963523008006604</v>
-      </c>
-      <c r="J24">
-        <v>0.4963523008006603</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>0.4633423333333333</v>
-      </c>
-      <c r="N24">
-        <v>1.390027</v>
-      </c>
-      <c r="O24">
-        <v>0.04112155775611768</v>
-      </c>
-      <c r="P24">
-        <v>0.04915602512439415</v>
-      </c>
-      <c r="Q24">
-        <v>0.1797925789726667</v>
-      </c>
-      <c r="R24">
-        <v>1.618133210754</v>
-      </c>
-      <c r="S24">
-        <v>0.02041077980475625</v>
-      </c>
-      <c r="T24">
-        <v>0.02439870616870811</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.388034</v>
-      </c>
-      <c r="H25">
-        <v>1.164102</v>
-      </c>
-      <c r="I25">
-        <v>0.4963523008006604</v>
-      </c>
-      <c r="J25">
-        <v>0.4963523008006603</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.002973333333333333</v>
-      </c>
-      <c r="N25">
-        <v>0.008920000000000001</v>
-      </c>
-      <c r="O25">
-        <v>0.0002638828563650704</v>
-      </c>
-      <c r="P25">
-        <v>0.0003154411706460349</v>
-      </c>
-      <c r="Q25">
-        <v>0.001153754426666667</v>
-      </c>
-      <c r="R25">
-        <v>0.01038378984</v>
-      </c>
-      <c r="S25">
-        <v>0.0001309788628986529</v>
-      </c>
-      <c r="T25">
-        <v>0.0001565699508174131</v>
+        <v>0.03962910021273443</v>
       </c>
     </row>
   </sheetData>
